--- a/SP_MAR2013_SCRIPTS/NewInvoiceFormat.xlsx
+++ b/SP_MAR2013_SCRIPTS/NewInvoiceFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Git\a4aliadnan@gmail.com\LMS\SP_MAR2013_SCRIPTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF67FB6-DC7D-4406-AD86-8DFCD51E75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25DE29-1C21-471D-BD90-EAD10CC54171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A7E5A1C-0D28-4A1F-B970-D8A68DCEE63C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>DATE</t>
   </si>
@@ -61,12 +61,66 @@
   <si>
     <t>CASE DETAILS</t>
   </si>
+  <si>
+    <t>DEFEN+ PLANT</t>
+  </si>
+  <si>
+    <t>CLIENTS NO.</t>
+  </si>
+  <si>
+    <t>CLAIM AMOUNT</t>
+  </si>
+  <si>
+    <t>VATIN : OM1100002437</t>
+  </si>
+  <si>
+    <t>INVOICE DETAILS</t>
+  </si>
+  <si>
+    <t>DISCRIPTION</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>VAT 5%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PRIMARY - LAWYER’S FEE - FULL FEES</t>
+  </si>
+  <si>
+    <t>1361.025 OMR</t>
+  </si>
+  <si>
+    <t>ONE THOUSAND THREE HUNDRED SIXTY-ONE RIAL OMANI AND FIFTY BAIZA ONLY</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>TRANSFER THE INVOICE AMOUNT TO</t>
+  </si>
+  <si>
+    <t>VATIN</t>
+  </si>
+  <si>
+    <t>@Html.DisplayFor(model =&gt; model.ClientNo)</t>
+  </si>
+  <si>
+    <t>@Html.DisplayFor(model =&gt; model.CaseDetail)</t>
+  </si>
+  <si>
+    <t>@Html.DisplayFor(model =&gt; model.ClaimAmount)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +147,41 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Sakkal Majalla"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sakkal Majalla"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Sakkal Majalla"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Sakkal Majalla"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Sakkal Majalla"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Sakkal Majalla"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Sakkal Majalla"/>
     </font>
@@ -118,92 +200,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -221,135 +223,71 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8993510-1185-4294-8DDE-C5A583547843}">
-  <dimension ref="A1:AK284"/>
+  <dimension ref="A1:AK290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,32 +694,32 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -798,31 +736,29 @@
     <row r="4" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -839,29 +775,29 @@
     <row r="5" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -878,29 +814,31 @@
     <row r="6" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -917,29 +855,29 @@
     <row r="7" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -956,35 +894,31 @@
     <row r="8" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="15" t="s">
-        <v>0</v>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1001,35 +935,29 @@
     <row r="9" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1046,29 +974,35 @@
     <row r="10" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="12"/>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1085,31 +1019,35 @@
     <row r="11" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="18" t="s">
-        <v>7</v>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="20"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -1123,32 +1061,32 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="24"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1165,7 +1103,7 @@
     <row r="13" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1187,7 +1125,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="12"/>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1204,29 +1142,31 @@
     <row r="14" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="12"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1243,29 +1183,33 @@
     <row r="15" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="12"/>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1282,29 +1226,33 @@
     <row r="16" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="12"/>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -1321,29 +1269,33 @@
     <row r="17" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="12"/>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -1360,29 +1312,33 @@
     <row r="18" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="12"/>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -1399,7 +1355,7 @@
     <row r="19" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1421,7 +1377,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="12"/>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -1438,7 +1394,7 @@
     <row r="20" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1460,7 +1416,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="12"/>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -1477,29 +1433,31 @@
     <row r="21" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="12"/>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -1513,32 +1471,40 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="12"/>
+      <c r="C22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -1552,32 +1518,40 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9">
+        <v>9999.9989999999998</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -1591,32 +1565,40 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9">
+        <v>9999.9989999999998</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -1630,32 +1612,40 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="12"/>
+      <c r="C25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9">
+        <v>9999.9989999999998</v>
+      </c>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -1669,32 +1659,40 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="12"/>
+      <c r="C26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9">
+        <v>9999.9989999999998</v>
+      </c>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -1708,32 +1706,40 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="12"/>
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15">
+        <v>9999.9989999999998</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15">
+        <v>999999.99899999995</v>
+      </c>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -1750,29 +1756,31 @@
     <row r="28" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="12"/>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -1786,32 +1794,36 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -1825,32 +1837,32 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -1864,32 +1876,32 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="12"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -1903,32 +1915,32 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="12"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -1942,32 +1954,36 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="12"/>
+      <c r="C33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -1981,32 +1997,32 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="12"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -2023,29 +2039,29 @@
     <row r="35" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="12"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -2062,7 +2078,7 @@
     <row r="36" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2084,7 +2100,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="12"/>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -2098,34 +2114,34 @@
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:37" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
@@ -2139,7 +2155,7 @@
     </row>
     <row r="38" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2163,8 +2179,8 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
@@ -2178,7 +2194,7 @@
     </row>
     <row r="39" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2202,8 +2218,8 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -2217,7 +2233,7 @@
     </row>
     <row r="40" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2241,8 +2257,8 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -2256,7 +2272,7 @@
     </row>
     <row r="41" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2280,8 +2296,8 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
@@ -2295,7 +2311,7 @@
     </row>
     <row r="42" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2319,8 +2335,8 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -2529,32 +2545,32 @@
     </row>
     <row r="48" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
@@ -2568,32 +2584,32 @@
     </row>
     <row r="49" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
@@ -2607,32 +2623,32 @@
     </row>
     <row r="50" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
@@ -2646,32 +2662,32 @@
     </row>
     <row r="51" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
@@ -2685,32 +2701,32 @@
     </row>
     <row r="52" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -2724,32 +2740,32 @@
     </row>
     <row r="53" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
@@ -11458,7 +11474,7 @@
       <c r="AJ276" s="1"/>
       <c r="AK276" s="1"/>
     </row>
-    <row r="277" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -11497,7 +11513,7 @@
       <c r="AJ277" s="1"/>
       <c r="AK277" s="1"/>
     </row>
-    <row r="278" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -11536,7 +11552,7 @@
       <c r="AJ278" s="1"/>
       <c r="AK278" s="1"/>
     </row>
-    <row r="279" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -11575,7 +11591,7 @@
       <c r="AJ279" s="1"/>
       <c r="AK279" s="1"/>
     </row>
-    <row r="280" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -11614,7 +11630,7 @@
       <c r="AJ280" s="1"/>
       <c r="AK280" s="1"/>
     </row>
-    <row r="281" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -11653,7 +11669,7 @@
       <c r="AJ281" s="1"/>
       <c r="AK281" s="1"/>
     </row>
-    <row r="282" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -11692,20 +11708,293 @@
       <c r="AJ282" s="1"/>
       <c r="AK282" s="1"/>
     </row>
-    <row r="283" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
+      <c r="U283" s="1"/>
+      <c r="V283" s="1"/>
+      <c r="W283" s="1"/>
+      <c r="X283" s="1"/>
+      <c r="Y283" s="1"/>
+      <c r="Z283" s="1"/>
+      <c r="AA283" s="1"/>
+      <c r="AB283" s="1"/>
+      <c r="AC283" s="1"/>
+      <c r="AD283" s="1"/>
+      <c r="AE283" s="1"/>
+      <c r="AF283" s="1"/>
+      <c r="AG283" s="1"/>
+      <c r="AH283" s="1"/>
+      <c r="AI283" s="1"/>
+      <c r="AJ283" s="1"/>
+      <c r="AK283" s="1"/>
+    </row>
+    <row r="284" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
+      <c r="X284" s="1"/>
+      <c r="Y284" s="1"/>
+      <c r="Z284" s="1"/>
+      <c r="AA284" s="1"/>
+      <c r="AB284" s="1"/>
+      <c r="AC284" s="1"/>
+      <c r="AD284" s="1"/>
+      <c r="AE284" s="1"/>
+      <c r="AF284" s="1"/>
+      <c r="AG284" s="1"/>
+      <c r="AH284" s="1"/>
+      <c r="AI284" s="1"/>
+      <c r="AJ284" s="1"/>
+      <c r="AK284" s="1"/>
+    </row>
+    <row r="285" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
+      <c r="U285" s="1"/>
+      <c r="V285" s="1"/>
+      <c r="W285" s="1"/>
+      <c r="X285" s="1"/>
+      <c r="Y285" s="1"/>
+      <c r="Z285" s="1"/>
+      <c r="AA285" s="1"/>
+      <c r="AB285" s="1"/>
+      <c r="AC285" s="1"/>
+      <c r="AD285" s="1"/>
+      <c r="AE285" s="1"/>
+      <c r="AF285" s="1"/>
+      <c r="AG285" s="1"/>
+      <c r="AH285" s="1"/>
+      <c r="AI285" s="1"/>
+      <c r="AJ285" s="1"/>
+      <c r="AK285" s="1"/>
+    </row>
+    <row r="286" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
+      <c r="V286" s="1"/>
+      <c r="W286" s="1"/>
+      <c r="X286" s="1"/>
+      <c r="Y286" s="1"/>
+      <c r="Z286" s="1"/>
+      <c r="AA286" s="1"/>
+      <c r="AB286" s="1"/>
+      <c r="AC286" s="1"/>
+      <c r="AD286" s="1"/>
+      <c r="AE286" s="1"/>
+      <c r="AF286" s="1"/>
+      <c r="AG286" s="1"/>
+      <c r="AH286" s="1"/>
+      <c r="AI286" s="1"/>
+      <c r="AJ286" s="1"/>
+      <c r="AK286" s="1"/>
+    </row>
+    <row r="287" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+      <c r="W287" s="1"/>
+      <c r="X287" s="1"/>
+      <c r="Y287" s="1"/>
+      <c r="Z287" s="1"/>
+      <c r="AA287" s="1"/>
+      <c r="AB287" s="1"/>
+      <c r="AC287" s="1"/>
+      <c r="AD287" s="1"/>
+      <c r="AE287" s="1"/>
+      <c r="AF287" s="1"/>
+      <c r="AG287" s="1"/>
+      <c r="AH287" s="1"/>
+      <c r="AI287" s="1"/>
+      <c r="AJ287" s="1"/>
+      <c r="AK287" s="1"/>
+    </row>
+    <row r="288" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
+      <c r="U288" s="1"/>
+      <c r="V288" s="1"/>
+      <c r="W288" s="1"/>
+      <c r="X288" s="1"/>
+      <c r="Y288" s="1"/>
+      <c r="Z288" s="1"/>
+      <c r="AA288" s="1"/>
+      <c r="AB288" s="1"/>
+      <c r="AC288" s="1"/>
+      <c r="AD288" s="1"/>
+      <c r="AE288" s="1"/>
+      <c r="AF288" s="1"/>
+      <c r="AG288" s="1"/>
+      <c r="AH288" s="1"/>
+      <c r="AI288" s="1"/>
+      <c r="AJ288" s="1"/>
+      <c r="AK288" s="1"/>
+    </row>
+    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C11:Y11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J12:Y12"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="C4:Y6"/>
+  <mergeCells count="49">
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="S35:Y35"/>
+    <mergeCell ref="C33:R34"/>
+    <mergeCell ref="S33:Y34"/>
+    <mergeCell ref="C28:Y28"/>
+    <mergeCell ref="C29:R30"/>
+    <mergeCell ref="S29:Y30"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="C21:Y21"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C8:Y8"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="I18:Y18"/>
+    <mergeCell ref="C6:Y7"/>
+    <mergeCell ref="C14:Y14"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="S11:Y11"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
